--- a/MelhorFiltro.xlsx
+++ b/MelhorFiltro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesly\Desktop\Lesly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41300B34-C4E4-4B44-AAD9-C0A086FBE1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9676D-0F8C-4A4C-BA11-A548DB3EE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="609" xr2:uid="{764A863F-3A7E-4ACC-8F53-F01996AEDDB5}"/>
   </bookViews>
@@ -20,12 +20,10 @@
     <sheet name="Resumo data" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Resumo por pulso (2)'!$L$3:$L$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Resumo por pulso'!$L$3:$L$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Resumo por pulso'!$L$3:$L$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Resumo simplificado'!$L$1:$L$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Resumo simplificado'!$L$3:$L$177</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Resumo simplificado'!$K$3:$K$177</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Resumo por pulso'!$L$3:$L$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Resumo simplificado'!$K$3:$K$177</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Resumo simplificado'!$L$1:$L$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Resumo simplificado'!$L$3:$L$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="319">
   <si>
     <t>Pulso</t>
   </si>
@@ -995,6 +993,15 @@
   </si>
   <si>
     <t>n_max -2</t>
+  </si>
+  <si>
+    <t>Usando n_max-n_</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>10, 38</t>
   </si>
 </sst>
 </file>
@@ -1010,12 +1017,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1030,11 +1043,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,6 +1089,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1088,7 +1111,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1151,7 +1174,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1205,7 +1228,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{780CA4AA-821E-4E85-BC08-13053C55B652}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -1237,7 +1260,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1245,7 +1268,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>n</cx:v>
+          <cx:v/>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -3476,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B8E8D-9D7A-4D59-8FEA-120A1523347C}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3487,9 +3510,9 @@
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3506,7 +3529,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -3531,7 +3554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3571,8 +3594,20 @@
       <c r="M3">
         <v>0.94202020951123899</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3612,8 +3647,20 @@
       <c r="M4">
         <v>0.97755149231844496</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4">
+        <f>AVERAGE(K3:K27)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S4">
+        <f>MEDIAN(K3:K27)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3653,8 +3700,11 @@
       <c r="M5">
         <v>0.94894150771882402</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3694,8 +3744,11 @@
       <c r="M6">
         <v>0.96440126611762</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3735,8 +3788,11 @@
       <c r="M7">
         <v>0.96140284098682505</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3776,8 +3832,11 @@
       <c r="M8">
         <v>0.93625335491316797</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3817,8 +3876,11 @@
       <c r="M9">
         <v>0.98505568510328301</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3858,8 +3920,11 @@
       <c r="M10">
         <v>0.83797236719804202</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3899,8 +3964,11 @@
       <c r="M11">
         <v>0.96440126611762</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3940,8 +4008,11 @@
       <c r="M12">
         <v>0.87122132998973101</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3981,8 +4052,11 @@
       <c r="M13">
         <v>0.96140284098682505</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4022,8 +4096,11 @@
       <c r="M14">
         <v>0.96140284098682505</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4063,8 +4140,11 @@
       <c r="M15">
         <v>0.70219382777156303</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4104,8 +4184,11 @@
       <c r="M16">
         <v>0.94937198486445595</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4145,8 +4228,11 @@
       <c r="M17">
         <v>0.96140284098682505</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4186,8 +4272,11 @@
       <c r="M18">
         <v>0.89323712907623098</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4227,8 +4316,11 @@
       <c r="M19">
         <v>0.94937198486445595</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4268,8 +4360,11 @@
       <c r="M20">
         <v>0.94894150771882402</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4309,8 +4404,11 @@
       <c r="M21">
         <v>0.90218219978078495</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4350,8 +4448,11 @@
       <c r="M22">
         <v>0.94894150771882402</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4391,8 +4492,11 @@
       <c r="M23">
         <v>0.99196465263104205</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4432,8 +4536,11 @@
       <c r="M24">
         <v>0.93124316874250501</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4473,8 +4580,11 @@
       <c r="M25">
         <v>0.965919160916346</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4514,8 +4624,11 @@
       <c r="M26">
         <v>0.88279159320837097</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4555,89 +4668,99 @@
       <c r="M27">
         <v>0.92536476108613197</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="N27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28">
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>10</v>
       </c>
-      <c r="M28">
-        <v>0.96140284098682505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="M28" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="N28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="L29">
-        <v>38</v>
-      </c>
+      <c r="L29" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28184,21 +28307,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BF2E55AF7F70AD43BB870B9ED5B60CC9" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="4f0d92b73e99e0257fafa208a07670bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="70d4f69e-f857-4704-80d3-b251d7f0172b" xmlns:ns4="a81c1948-3b0a-4a20-8cb2-eb5017c6cdd2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42626538944ac611d21c92f0b83f4ec3" ns3:_="" ns4:_="">
     <xsd:import namespace="70d4f69e-f857-4704-80d3-b251d7f0172b"/>
@@ -28401,10 +28509,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2782DEE7-7810-4EF6-8898-656A13D527A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B856DA-4959-4845-AE89-3BC2A89D7DF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="70d4f69e-f857-4704-80d3-b251d7f0172b"/>
+    <ds:schemaRef ds:uri="a81c1948-3b0a-4a20-8cb2-eb5017c6cdd2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28427,20 +28561,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33B856DA-4959-4845-AE89-3BC2A89D7DF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2782DEE7-7810-4EF6-8898-656A13D527A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="70d4f69e-f857-4704-80d3-b251d7f0172b"/>
-    <ds:schemaRef ds:uri="a81c1948-3b0a-4a20-8cb2-eb5017c6cdd2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>